--- a/branches/update-code-systems/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-patient.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="576">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3202" uniqueCount="577">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -917,6 +917,9 @@
   </si>
   <si>
     <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Medical record number</t>
   </si>
   <si>
     <t>Coding.display</t>
@@ -6183,7 +6186,7 @@
         <v>80</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>80</v>
+        <v>293</v>
       </c>
       <c r="T35" t="s" s="2">
         <v>80</v>
@@ -6222,7 +6225,7 @@
         <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>78</v>
@@ -6237,7 +6240,7 @@
         <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>80</v>
@@ -6246,7 +6249,7 @@
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>80</v>
@@ -6254,10 +6257,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6280,19 +6283,19 @@
         <v>88</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
@@ -6341,7 +6344,7 @@
         <v>80</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>78</v>
@@ -6356,7 +6359,7 @@
         <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>80</v>
@@ -6365,7 +6368,7 @@
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>80</v>
@@ -6373,10 +6376,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6402,16 +6405,16 @@
         <v>167</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6460,7 +6463,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6475,7 +6478,7 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>80</v>
@@ -6484,7 +6487,7 @@
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>80</v>
@@ -6492,7 +6495,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>202</v>
@@ -6537,7 +6540,7 @@
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>80</v>
@@ -6611,7 +6614,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>213</v>
@@ -6728,7 +6731,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>222</v>
@@ -6843,7 +6846,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>230</v>
@@ -6960,10 +6963,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6986,70 +6989,70 @@
         <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="P42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q42" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="R42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -7064,13 +7067,13 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>171</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>80</v>
@@ -7081,10 +7084,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7107,19 +7110,19 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>80</v>
@@ -7168,7 +7171,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -7183,16 +7186,16 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7200,10 +7203,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7315,10 +7318,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7432,10 +7435,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7461,16 +7464,16 @@
         <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7498,10 +7501,10 @@
         <v>184</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>80</v>
@@ -7519,7 +7522,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -7534,7 +7537,7 @@
         <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>80</v>
@@ -7543,7 +7546,7 @@
         <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>80</v>
@@ -7551,10 +7554,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7580,16 +7583,16 @@
         <v>167</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7638,7 +7641,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7653,7 +7656,7 @@
         <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>80</v>
@@ -7662,7 +7665,7 @@
         <v>80</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>80</v>
@@ -7670,14 +7673,14 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7699,13 +7702,13 @@
         <v>167</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7755,7 +7758,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7770,7 +7773,7 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>80</v>
@@ -7779,7 +7782,7 @@
         <v>80</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>80</v>
@@ -7787,14 +7790,14 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7816,13 +7819,13 @@
         <v>167</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7872,7 +7875,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7887,7 +7890,7 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>80</v>
@@ -7896,7 +7899,7 @@
         <v>80</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>80</v>
@@ -7904,10 +7907,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7933,10 +7936,10 @@
         <v>167</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7987,7 +7990,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8002,7 +8005,7 @@
         <v>99</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
@@ -8011,7 +8014,7 @@
         <v>80</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>80</v>
@@ -8019,10 +8022,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8048,10 +8051,10 @@
         <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8102,7 +8105,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8117,7 +8120,7 @@
         <v>99</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
@@ -8126,7 +8129,7 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>80</v>
@@ -8134,10 +8137,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8163,14 +8166,14 @@
         <v>223</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8219,7 +8222,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8234,7 +8237,7 @@
         <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
@@ -8243,7 +8246,7 @@
         <v>80</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>80</v>
@@ -8251,10 +8254,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8277,19 +8280,19 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>80</v>
@@ -8338,7 +8341,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8353,16 +8356,16 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>80</v>
@@ -8370,10 +8373,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8399,16 +8402,16 @@
         <v>107</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>80</v>
@@ -8436,10 +8439,10 @@
         <v>184</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>80</v>
@@ -8457,7 +8460,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8472,16 +8475,16 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>80</v>
@@ -8489,10 +8492,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8515,19 +8518,19 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8576,7 +8579,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8591,27 +8594,27 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8634,19 +8637,19 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>80</v>
@@ -8695,7 +8698,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8710,7 +8713,7 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>171</v>
@@ -8719,7 +8722,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8727,10 +8730,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8753,19 +8756,19 @@
         <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8814,7 +8817,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8829,16 +8832,16 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8846,10 +8849,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8875,14 +8878,14 @@
         <v>191</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>80</v>
@@ -8910,10 +8913,10 @@
         <v>196</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8931,7 +8934,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8946,16 +8949,16 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>80</v>
@@ -8963,10 +8966,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8989,19 +8992,19 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>80</v>
@@ -9050,7 +9053,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -9065,7 +9068,7 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>171</v>
@@ -9074,7 +9077,7 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>80</v>
@@ -9082,10 +9085,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9108,19 +9111,19 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>80</v>
@@ -9169,7 +9172,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9184,7 +9187,7 @@
         <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>171</v>
@@ -9193,7 +9196,7 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>80</v>
@@ -9201,10 +9204,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9227,19 +9230,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -9288,7 +9291,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9300,10 +9303,10 @@
         <v>80</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>171</v>
@@ -9320,10 +9323,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9435,10 +9438,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9552,14 +9555,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9581,10 +9584,10 @@
         <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N64" t="s" s="2">
         <v>149</v>
@@ -9639,7 +9642,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9671,10 +9674,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9700,14 +9703,14 @@
         <v>191</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
@@ -9735,10 +9738,10 @@
         <v>196</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
@@ -9756,7 +9759,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9771,7 +9774,7 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>171</v>
@@ -9780,7 +9783,7 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9788,10 +9791,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9814,17 +9817,17 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9873,7 +9876,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9888,7 +9891,7 @@
         <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>171</v>
@@ -9897,7 +9900,7 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>80</v>
@@ -9905,10 +9908,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9931,19 +9934,19 @@
         <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>80</v>
@@ -9992,7 +9995,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -10007,7 +10010,7 @@
         <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>171</v>
@@ -10016,7 +10019,7 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10024,10 +10027,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10050,17 +10053,17 @@
         <v>80</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>80</v>
@@ -10109,7 +10112,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10124,7 +10127,7 @@
         <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>171</v>
@@ -10133,7 +10136,7 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10141,10 +10144,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10170,14 +10173,14 @@
         <v>107</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>80</v>
@@ -10205,10 +10208,10 @@
         <v>184</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>80</v>
@@ -10226,7 +10229,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10241,7 +10244,7 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>171</v>
@@ -10250,7 +10253,7 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10258,10 +10261,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10287,14 +10290,14 @@
         <v>231</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10343,7 +10346,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>78</v>
@@ -10352,13 +10355,13 @@
         <v>87</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>171</v>
@@ -10367,7 +10370,7 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10375,10 +10378,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10404,10 +10407,10 @@
         <v>223</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -10458,7 +10461,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10473,7 +10476,7 @@
         <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>171</v>
@@ -10490,10 +10493,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10516,19 +10519,19 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10577,7 +10580,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10592,10 +10595,10 @@
         <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>80</v>
@@ -10609,10 +10612,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10724,10 +10727,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10841,14 +10844,14 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -10870,10 +10873,10 @@
         <v>132</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N75" t="s" s="2">
         <v>149</v>
@@ -10928,7 +10931,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10960,10 +10963,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10989,16 +10992,16 @@
         <v>191</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>80</v>
@@ -11047,7 +11050,7 @@
         <v>80</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>87</v>
@@ -11062,16 +11065,16 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>80</v>
@@ -11079,10 +11082,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11105,19 +11108,19 @@
         <v>80</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>80</v>
@@ -11166,7 +11169,7 @@
         <v>80</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>78</v>
@@ -11181,16 +11184,16 @@
         <v>99</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>80</v>
@@ -11198,14 +11201,14 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
@@ -11224,16 +11227,16 @@
         <v>80</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11283,7 +11286,7 @@
         <v>80</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>78</v>
@@ -11298,7 +11301,7 @@
         <v>99</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>171</v>
@@ -11307,7 +11310,7 @@
         <v>80</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>80</v>
@@ -11315,10 +11318,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11344,16 +11347,16 @@
         <v>231</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>80</v>
@@ -11402,7 +11405,7 @@
         <v>80</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>78</v>
@@ -11417,10 +11420,10 @@
         <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>80</v>
@@ -11434,10 +11437,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11460,19 +11463,19 @@
         <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>80</v>
@@ -11521,7 +11524,7 @@
         <v>80</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>78</v>
@@ -11536,7 +11539,7 @@
         <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>171</v>
@@ -11553,10 +11556,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11668,10 +11671,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11785,14 +11788,14 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
@@ -11814,10 +11817,10 @@
         <v>132</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N83" t="s" s="2">
         <v>149</v>
@@ -11872,7 +11875,7 @@
         <v>80</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>78</v>
@@ -11904,10 +11907,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11930,16 +11933,16 @@
         <v>88</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11989,7 +11992,7 @@
         <v>80</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>87</v>
@@ -12013,7 +12016,7 @@
         <v>80</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>80</v>
@@ -12021,10 +12024,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12050,10 +12053,10 @@
         <v>107</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
@@ -12083,10 +12086,10 @@
         <v>184</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="Z85" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="AA85" t="s" s="2">
         <v>80</v>
@@ -12104,7 +12107,7 @@
         <v>80</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>87</v>
@@ -12119,7 +12122,7 @@
         <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>171</v>

--- a/branches/update-code-systems/StructureDefinition-hiv-patient.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
